--- a/Healthcare/Lantheus Holdings.xlsx
+++ b/Healthcare/Lantheus Holdings.xlsx
@@ -5,36 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AA8CFF-FD04-2044-A58E-584EE0BB515C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0F6B42-242F-ED4D-B234-F993030686D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$M$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$M$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$106:$M$106</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$19:$M$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$B$3:$M$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$M$106</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Sheet 1'!$B$106:$M$106</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'Sheet 1'!$B$19:$M$19</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$B$3:$M$3</definedName>
-  </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1028,6 +1009,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1039,12 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2315,11 +2296,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>91.62</v>
+    <v>99.97</v>
     <v>47.46</v>
-    <v>0.65810000000000002</v>
-    <v>-0.26</v>
-    <v>-2.8639999999999998E-3</v>
+    <v>0.66469999999999996</v>
+    <v>0.42</v>
+    <v>4.2440000000000004E-3</v>
+    <v>0.1</v>
+    <v>1.0059999999999999E-3</v>
     <v>USD</v>
     <v>Lantheus Holdings, Inc. is an integrated provider of imaging diagnostics, targeted therapeutics, and artificial intelligence solutions to find, fight and follow serious medical conditions. The Company's products include precision diagnostics, radiopharmaceutical oncology, and strategic partnerships. Its precision diagnostic products assist healthcare professionals (HCPs) Find and Follow diseases, with a focus on cardiology. Its radiopharmaceutical oncology diagnostics and therapeutics help HCPs Find, Fight and Follow cancer. Its strategic partnerships focus on enabling precision medicine through the use of biomarkers, digital solutions and pharma services platforms, and also includes the Company's license of RELISTOR to Bausch Health Companies, Inc. (Bausch). Its commercial products are used by oncologists, urologists, nuclear medicine physicians, cardiologists, sonographers, technologists, radiologists, and internal medicine physicians working in a variety of clinical settings.</v>
     <v>698</v>
@@ -2327,24 +2310,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>331 Treble Cove Rd, NORTH BILLERICA, MA, 01862 US</v>
-    <v>91.62</v>
+    <v>99.476399999999998</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45035.964951678128</v>
+    <v>45057.958396041409</v>
     <v>0</v>
-    <v>90.254999999999995</v>
-    <v>6174423927</v>
+    <v>98.02</v>
+    <v>6790922608</v>
     <v>LANTHEUS HOLDINGS, INC.</v>
     <v>LANTHEUS HOLDINGS, INC.</v>
-    <v>90.79</v>
-    <v>263.83589999999998</v>
-    <v>90.79</v>
-    <v>90.53</v>
-    <v>68203070</v>
+    <v>98.82</v>
+    <v>240.46279999999999</v>
+    <v>98.96</v>
+    <v>99.38</v>
+    <v>99.48</v>
+    <v>68332890</v>
     <v>LNTH</v>
     <v>LANTHEUS HOLDINGS, INC. (XNAS:LNTH)</v>
-    <v>775877</v>
-    <v>946725</v>
+    <v>655105</v>
+    <v>1047280</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2376,6 +2360,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2396,6 +2382,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2412,7 +2399,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2423,13 +2410,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2495,13 +2485,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2546,6 +2542,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2553,6 +2552,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2914,10 +2916,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S135" sqref="S135"/>
+      <selection pane="bottomRight" activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3835,15 +3837,15 @@
       </c>
       <c r="T16" s="30">
         <f>U101/M3</f>
-        <v>6.6032311549727769</v>
+        <v>7.2625450189880656</v>
       </c>
       <c r="U16" s="30">
         <f>U101/M28</f>
-        <v>219.98873862543201</v>
+        <v>241.95398895500054</v>
       </c>
       <c r="V16" s="31">
         <f>U101/M106</f>
-        <v>23.438219542655844</v>
+        <v>25.778459151058708</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6696,10 +6698,10 @@
       <c r="M83" s="1">
         <v>-7508000</v>
       </c>
-      <c r="T83" s="59" t="s">
+      <c r="T83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="U83" s="60"/>
+      <c r="U83" s="62"/>
     </row>
     <row r="84" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6741,10 +6743,10 @@
       <c r="M84" s="1">
         <v>301000</v>
       </c>
-      <c r="T84" s="61" t="s">
+      <c r="T84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="U84" s="62"/>
+      <c r="U84" s="64"/>
     </row>
     <row r="85" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7188,10 +7190,10 @@
       <c r="M93" s="1">
         <v>-276547000</v>
       </c>
-      <c r="T93" s="61" t="s">
+      <c r="T93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="U93" s="62"/>
+      <c r="U93" s="64"/>
     </row>
     <row r="94" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7285,7 +7287,7 @@
       </c>
       <c r="U95" s="38" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>0.65810000000000002</v>
+        <v>0.66469999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -7380,7 +7382,7 @@
       </c>
       <c r="U97" s="36">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>6.9281205000000012E-2</v>
+        <v>6.9565335000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -7423,10 +7425,10 @@
       <c r="M98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T98" s="61" t="s">
+      <c r="T98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="U98" s="62"/>
+      <c r="U98" s="64"/>
     </row>
     <row r="99" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7521,7 +7523,7 @@
       </c>
       <c r="U100" s="34">
         <f>U99/U103</f>
-        <v>8.2891471959271754E-2</v>
+        <v>7.5937796310161329E-2</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -7569,7 +7571,7 @@
       </c>
       <c r="U101" s="39" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6174423927</v>
+        <v>6790922608</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -7617,7 +7619,7 @@
       </c>
       <c r="U102" s="34">
         <f>U101/U103</f>
-        <v>0.91710852804072829</v>
+        <v>0.92406220368983871</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -7665,7 +7667,7 @@
       </c>
       <c r="U103" s="40">
         <f>U99+U101</f>
-        <v>6732489927</v>
+        <v>7348988608</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7708,10 +7710,10 @@
       <c r="M104" s="11">
         <v>417241000</v>
       </c>
-      <c r="T104" s="61" t="s">
+      <c r="T104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="U104" s="62"/>
+      <c r="U104" s="64"/>
     </row>
     <row r="105" spans="1:42" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7773,7 +7775,7 @@
       </c>
       <c r="U105" s="26">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>6.4659438770231281E-2</v>
+        <v>6.5309707518770591E-2</v>
       </c>
       <c r="V105" s="15"/>
       <c r="AH105" s="15"/>
@@ -7877,7 +7879,7 @@
       <c r="Q107" s="42"/>
       <c r="R107" s="45">
         <f>R106*(1+U107)/(U108-U107)</f>
-        <v>12378973736.168415</v>
+        <v>12179278420.694572</v>
       </c>
       <c r="S107" s="46" t="s">
         <v>148</v>
@@ -7908,7 +7910,7 @@
       </c>
       <c r="R108" s="45">
         <f>R107+R106</f>
-        <v>12857942663.902925</v>
+        <v>12658247348.429083</v>
       </c>
       <c r="S108" s="46" t="s">
         <v>144</v>
@@ -7918,14 +7920,14 @@
       </c>
       <c r="U108" s="50">
         <f>U105</f>
-        <v>6.4659438770231281E-2</v>
+        <v>6.5309707518770591E-2</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="63" t="s">
+      <c r="N109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="O109" s="64"/>
+      <c r="O109" s="60"/>
     </row>
     <row r="110" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="N110" s="51" t="s">
@@ -7933,7 +7935,7 @@
       </c>
       <c r="O110" s="39">
         <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>10617096484.372221</v>
+        <v>10440991897.749796</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -7960,7 +7962,7 @@
       </c>
       <c r="O113" s="39">
         <f>O110+O111-O112</f>
-        <v>10474682484.372221</v>
+        <v>10298577897.749796</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7978,7 +7980,7 @@
       </c>
       <c r="O115" s="54">
         <f>O113/O114</f>
-        <v>87.901783495769934</v>
+        <v>86.423943258703858</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7987,7 +7989,7 @@
       </c>
       <c r="O116" s="55" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>90.53</v>
+        <v>99.38</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7996,7 +7998,7 @@
       </c>
       <c r="O117" s="57">
         <f>O115/O116-1</f>
-        <v>-2.9031442662433071E-2</v>
+        <v>-0.13036885430968137</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
